--- a/collections/_HIST/古代日本典籍表.xlsx
+++ b/collections/_HIST/古代日本典籍表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="典籍" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="444">
   <si>
     <t xml:space="preserve">古代日本典籍</t>
   </si>
@@ -149,6 +149,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">收录由四世纪至八世纪</t>
     </r>
@@ -158,6 +159,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4500</t>
     </r>
@@ -167,6 +169,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">多首长歌、短歌，共计二十卷，于七世纪后半至八世纪后半编辑完成，按内容分为杂歌、相闻、挽歌等。</t>
     </r>
@@ -202,6 +205,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最澄</t>
     </r>
@@ -211,6 +215,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">20</t>
     </r>
@@ -220,6 +225,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">岁时所作，体现其个人的佛家思想。</t>
     </r>
@@ -240,6 +246,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以日本天皇为主轴，记载自文武天皇元年（</t>
     </r>
@@ -249,6 +256,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">697</t>
     </r>
@@ -258,6 +266,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）至桓武天皇延历十年（</t>
     </r>
@@ -267,6 +276,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">791</t>
     </r>
@@ -276,6 +286,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）之间的历史大事。</t>
     </r>
@@ -293,6 +304,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">空海在</t>
     </r>
@@ -302,6 +314,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">24</t>
     </r>
@@ -311,6 +324,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">岁的著作，被认为是向反对自己出家的亲族发出的假借宗教寓意小说的出家宣言。不过最初本书的题名是‘聋瞽指归’</t>
     </r>
@@ -385,6 +399,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正确名称是《秘密曼陀罗十住心论》。在约</t>
     </r>
@@ -394,6 +409,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">830</t>
     </r>
@@ -403,6 +419,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年间，回应淳和天皇之敕，叙述真言密教体系的书（天长六本宗书之一）。共</t>
     </r>
@@ -412,6 +429,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -421,6 +439,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷。</t>
     </r>
@@ -441,6 +460,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">记载延历</t>
     </r>
@@ -450,6 +470,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11</t>
     </r>
@@ -459,6 +480,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -468,6 +490,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">792</t>
     </r>
@@ -477,6 +500,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）至天长</t>
     </r>
@@ -486,6 +510,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -495,6 +520,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -504,6 +530,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">833</t>
     </r>
@@ -513,6 +540,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）</t>
     </r>
@@ -522,6 +550,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">42</t>
     </r>
@@ -531,6 +560,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年间的史事。《日本后纪》属于编年体，以汉文撰写，全书共</t>
     </r>
@@ -540,6 +570,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">40</t>
     </r>
@@ -549,6 +580,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，现存</t>
     </r>
@@ -558,6 +590,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -567,6 +600,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷。</t>
     </r>
@@ -590,6 +624,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日本僧人圆仁随第</t>
     </r>
@@ -599,6 +634,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">19</t>
     </r>
@@ -608,6 +644,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">次遣唐使团入唐求法巡礼过程当中用汉文所作的一部日记体游记著作。其内容记录了唐武宗会昌毁佛运动的有关情况，并对</t>
     </r>
@@ -617,6 +654,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9</t>
     </r>
@@ -626,6 +664,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪中国的社会风习进行了详尽描述</t>
     </r>
@@ -646,6 +685,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">记载天长</t>
     </r>
@@ -655,6 +695,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -664,6 +705,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -673,6 +715,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">833</t>
     </r>
@@ -682,6 +725,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）至嘉祥</t>
     </r>
@@ -691,6 +735,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -700,6 +745,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -709,6 +755,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">850</t>
     </r>
@@ -718,6 +765,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）间的史事，是平安时代由天子亲政至摄关政治转换期的基本史料。</t>
     </r>
@@ -738,6 +786,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">编年体体裁，以汉文撰写，记载了从嘉祥三年（</t>
     </r>
@@ -747,6 +796,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">850</t>
     </r>
@@ -756,6 +806,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）至天安二年（</t>
     </r>
@@ -765,6 +816,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">858</t>
     </r>
@@ -774,6 +826,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）</t>
     </r>
@@ -783,6 +836,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -792,6 +846,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年内的事情，共</t>
     </r>
@@ -801,6 +856,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -810,6 +866,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷。</t>
     </r>
@@ -830,6 +887,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">编年体形式的汉文史书，共</t>
     </r>
@@ -839,6 +897,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">50</t>
     </r>
@@ -848,6 +907,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷。其记载包括了从天安二年（</t>
     </r>
@@ -857,6 +917,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">858</t>
     </r>
@@ -866,6 +927,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）</t>
     </r>
@@ -875,6 +937,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -884,6 +947,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月至仁和三年（</t>
     </r>
@@ -893,6 +957,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">887</t>
     </r>
@@ -902,6 +967,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）</t>
     </r>
@@ -911,6 +977,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -920,6 +987,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月这</t>
     </r>
@@ -929,6 +997,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">30</t>
     </r>
@@ -938,6 +1007,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年间发生的事件。</t>
     </r>
@@ -955,6 +1025,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歌物语。全</t>
     </r>
@@ -964,6 +1035,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">125</t>
     </r>
@@ -973,6 +1045,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">段构成，以数行程度（长的数十行、短的</t>
     </r>
@@ -982,6 +1055,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -991,6 +1065,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">～</t>
     </r>
@@ -1000,6 +1075,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -1009,6 +1085,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行）的假名文和歌组成的章段描写某男之元服到死去的生涯。</t>
     </r>
@@ -1029,6 +1106,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以日本六国史条文分门别类编排的类书，菅原道真编。全</t>
     </r>
@@ -1038,6 +1116,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">200</t>
     </r>
@@ -1047,6 +1126,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，另有目录</t>
     </r>
@@ -1056,6 +1136,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1065,6 +1146,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷、系图</t>
     </r>
@@ -1074,6 +1156,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -1083,6 +1166,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，现存</t>
     </r>
@@ -1092,6 +1176,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">62</t>
     </r>
@@ -1101,6 +1186,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷。</t>
     </r>
@@ -1157,6 +1243,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">共</t>
     </r>
@@ -1166,6 +1253,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -1175,6 +1263,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷</t>
     </r>
@@ -1184,6 +1273,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -1193,6 +1283,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">章，理论上完善了净土信仰。</t>
     </r>
@@ -1210,6 +1301,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">故事内容近似于格林童话中的《灰姑娘》，和唐朝《酉阳杂俎</t>
     </r>
@@ -1219,6 +1311,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">·</t>
     </r>
@@ -1228,6 +1321,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">叶限姑娘》。</t>
     </r>
@@ -1245,6 +1339,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以汉文写成，共</t>
     </r>
@@ -1254,6 +1349,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">34</t>
     </r>
@@ -1263,6 +1359,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，记述神代至长元</t>
     </r>
@@ -1272,6 +1369,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9</t>
     </r>
@@ -1281,6 +1379,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -1290,6 +1389,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1036</t>
     </r>
@@ -1299,6 +1399,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）后一条天皇崩御间事，与现存六国史有足资相互比勘补完之处。</t>
     </r>
@@ -1364,6 +1465,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">记述了从寛弘</t>
     </r>
@@ -1373,6 +1475,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5</t>
     </r>
@@ -1382,6 +1485,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -1391,6 +1495,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1008</t>
     </r>
@@ -1400,6 +1505,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）秋至寛弘</t>
     </r>
@@ -1409,6 +1515,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -1418,6 +1525,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -1427,6 +1535,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1010</t>
     </r>
@@ -1436,6 +1545,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）正月间自己在中宫藤原彰子身边担任女官的经历、见闻和感想。由顿成亲王、顿良亲王的诞生，对宫廷女官的评述，宫廷轶事三部分构成。</t>
     </r>
@@ -1486,6 +1596,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全书共</t>
     </r>
@@ -1495,6 +1606,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">30</t>
     </r>
@@ -1504,6 +1616,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，私人编撰的史书。它以汉文编年体，记述由神武天皇到堀河天皇宽治</t>
     </r>
@@ -1513,6 +1626,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -1522,6 +1636,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1531,6 +1646,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -1540,6 +1656,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1549,6 +1666,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1558,6 +1676,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日期间的日本历史，包括天皇系谱和僧侣传记、寺院历史等以佛教方面为主的内容，对鉴真、慈觉大师等僧人的事迹均有详细记载。</t>
     </r>
@@ -1581,6 +1700,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日本汉文笔记</t>
     </r>
@@ -1590,6 +1710,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1599,6 +1720,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是日本戏剧史研究中的具有重要资料价值的一部著作。</t>
     </r>
@@ -1637,6 +1759,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">正篇</t>
     </r>
@@ -1646,6 +1769,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1024-1028</t>
     </r>
@@ -1655,6 +1779,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">完成，续篇完成于</t>
     </r>
@@ -1664,6 +1789,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11</t>
     </r>
@@ -1673,6 +1799,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪末</t>
     </r>
@@ -1682,6 +1809,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-12</t>
     </r>
@@ -1691,6 +1819,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪初。内容以故事之形式，描写藤原道长的生活，暗讽日本平安时代贵族的奢华。</t>
     </r>
@@ -1708,6 +1837,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日本平安时代（</t>
     </r>
@@ -1717,6 +1847,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">794</t>
     </r>
@@ -1726,6 +1857,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1735,6 +1867,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">~1185</t>
     </r>
@@ -1744,6 +1877,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）末期的民间故事集，旧称《宇治大纳言物语》，相传编者为宇治大纳言源隆国，共</t>
     </r>
@@ -1753,6 +1887,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">31</t>
     </r>
@@ -1762,6 +1897,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，故事一千余则。</t>
     </r>
@@ -1791,6 +1927,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">记录自</t>
     </r>
@@ -1800,6 +1937,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1164</t>
     </r>
@@ -1809,6 +1947,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年至</t>
     </r>
@@ -1818,6 +1957,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1200</t>
     </r>
@@ -1827,6 +1967,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年间，九条兼实于公私等方面的记载，也详细记录各项仪式的内容。也针对当时的源平争斗有着相当多的记载，是平安时代末期到镰仓时代初期的珍贵史料。</t>
     </r>
@@ -1841,6 +1982,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">问答体历史书。以藤原北家以及藤原道长一族的荣华富贵为叙事主轴，时间范围为文德天皇即位到后一条天皇在位期间的万寿</t>
     </r>
@@ -1850,6 +1992,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1859,6 +2002,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -1868,6 +2012,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1025</t>
     </r>
@@ -1877,6 +2022,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年），包含</t>
     </r>
@@ -1886,6 +2032,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">14</t>
     </r>
@@ -1895,6 +2042,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">代天皇在内的</t>
     </r>
@@ -1904,6 +2052,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">176</t>
     </r>
@@ -1913,6 +2062,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年间的宫廷历史。</t>
     </r>
@@ -1936,6 +2086,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">又称《小镜》或《续世继》，是日本的一部史书，仿照《大镜》撰写，为四镜之一。叙述从后一条天皇万寿</t>
     </r>
@@ -1945,6 +2096,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1954,6 +2106,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -1963,6 +2116,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1025</t>
     </r>
@@ -1972,6 +2126,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）到高仓天皇嘉应</t>
     </r>
@@ -1981,6 +2136,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1990,6 +2146,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -1999,6 +2156,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1170</t>
     </r>
@@ -2008,6 +2166,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）之间的事迹。</t>
     </r>
@@ -2028,6 +2187,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">叙述从神武天皇到仁明天皇嘉祥</t>
     </r>
@@ -2037,6 +2197,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -2046,6 +2207,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -2055,6 +2217,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">850</t>
     </r>
@@ -2064,6 +2227,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）之间</t>
     </r>
@@ -2073,6 +2237,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">57</t>
     </r>
@@ -2082,6 +2247,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">代的事迹，该书偏重于佛教史。</t>
     </r>
@@ -2138,6 +2304,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全</t>
     </r>
@@ -2147,6 +2314,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -2156,6 +2324,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷。卷</t>
     </r>
@@ -2165,6 +2334,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -2174,6 +2344,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和卷</t>
     </r>
@@ -2183,6 +2354,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -2192,6 +2364,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是“汉家年代”“皇帝年代记”，是神武以来之天皇年代记，卷</t>
     </r>
@@ -2201,6 +2374,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -2210,6 +2384,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到卷</t>
     </r>
@@ -2219,6 +2394,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6</t>
     </r>
@@ -2228,6 +2404,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是以道理的推移为中心的历史叙述，卷</t>
     </r>
@@ -2237,6 +2414,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -2246,6 +2424,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是论说，关于道理的总括。</t>
     </r>
@@ -2269,6 +2448,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">镰仓幕府的官方史书，记载了从治承四年（</t>
     </r>
@@ -2278,6 +2458,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1180</t>
     </r>
@@ -2287,6 +2468,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）</t>
     </r>
@@ -2296,6 +2478,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -2305,6 +2488,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月以仁王和源赖政征讨平氏，至文永三年（</t>
     </r>
@@ -2314,6 +2498,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1266</t>
     </r>
@@ -2323,6 +2508,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）宗尊亲王归京的</t>
     </r>
@@ -2332,6 +2518,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">87</t>
     </r>
@@ -2341,6 +2528,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年历史。日本的一本编年体史书。全书</t>
     </r>
@@ -2350,6 +2538,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">52</t>
     </r>
@@ -2359,6 +2548,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷（缺第</t>
     </r>
@@ -2368,6 +2558,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">45</t>
     </r>
@@ -2377,6 +2568,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷），用变体汉文和日记体裁写成。</t>
     </r>
@@ -2397,6 +2589,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注释《日本书纪》而成，全书共</t>
     </r>
@@ -2406,6 +2599,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">28</t>
     </r>
@@ -2415,6 +2609,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷</t>
     </r>
@@ -2432,6 +2627,36 @@
     <t xml:space="preserve">由一篇序段以及另外二百四十三段组成，文体为和汉混淆文与以假名文字为中心的和文相混合，主题环绕无常、死亡、自然美等等。</t>
   </si>
   <si>
+    <t xml:space="preserve">镰仓后期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">實躬卿記</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三条実躬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">権大納言三条実躬的日记。记录镰仓幕府和朝廷的事情。研究镰仓后期的重要史料。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镰仓中期-镰仓后期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曽我物語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">军记物语。以镰仓时代初期的曾我兄弟复仇事件为题材。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1356以前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保暦間記</t>
+  </si>
+  <si>
+    <t xml:space="preserve">记录了从1156年保元之乱开始，到1339年（应历2年）后醍醐天皇驾崩的历史。包括了「和田合戦」、「承久の乱」、「宝治合戦」、「二月騒動」、「霜月騒動」等历史事件的重要史料。</t>
+  </si>
+  <si>
     <t xml:space="preserve">1333？-1376？</t>
   </si>
   <si>
@@ -2444,6 +2669,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">记录从寿永</t>
     </r>
@@ -2453,6 +2679,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -2462,6 +2689,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -2471,6 +2699,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1183</t>
     </r>
@@ -2480,6 +2709,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）后鸟羽天皇即位到元弘</t>
     </r>
@@ -2489,6 +2719,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -2498,6 +2729,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -2507,6 +2739,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1333</t>
     </r>
@@ -2516,6 +2749,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）后醍醐天皇回到京都为止，共</t>
     </r>
@@ -2525,6 +2759,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">151</t>
     </r>
@@ -2534,6 +2769,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年的历史。写作风格模仿《源氏物语》。</t>
     </r>
@@ -2548,7 +2784,7 @@
     <t xml:space="preserve">多人，不详</t>
   </si>
   <si>
-    <t xml:space="preserve">军记物语。记述南北朝战乱。</t>
+    <t xml:space="preserve">军记物语。记述南北朝战乱。第一卷记录了正中之变的细节。</t>
   </si>
   <si>
     <t xml:space="preserve">承久记</t>
@@ -2557,15 +2793,6 @@
     <t xml:space="preserve">军记物语。记述承久之乱。</t>
   </si>
   <si>
-    <t xml:space="preserve">镰仓中期-镰仓后期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">曽我物語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">军记物语。以镰仓时代初期的曾我兄弟复仇事件为题材。</t>
-  </si>
-  <si>
     <t xml:space="preserve">1394-1395</t>
   </si>
   <si>
@@ -2608,6 +2835,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">记载了截至文明</t>
     </r>
@@ -2617,6 +2845,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -2626,6 +2855,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -2635,6 +2865,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1475</t>
     </r>
@@ -2644,6 +2875,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）的日本和朝鲜、中国的交流史。</t>
     </r>
@@ -2676,6 +2908,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">军记物语文学，全书</t>
     </r>
@@ -2685,6 +2918,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">22</t>
     </r>
@@ -2694,6 +2928,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巻，以大友义镇（宗麟）和大友义统两代为中心记录大友氏的兴亡。</t>
     </r>
@@ -2735,6 +2970,7 @@
         <color rgb="FF333333"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日本的一部纪传体史书，共</t>
     </r>
@@ -2744,6 +2980,7 @@
         <color rgb="FF333333"/>
         <rFont val="Fira Code"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">397</t>
     </r>
@@ -2753,6 +2990,7 @@
         <color rgb="FF333333"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，用汉文撰写。</t>
     </r>
@@ -2794,6 +3032,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">共</t>
     </r>
@@ -2803,6 +3042,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">22</t>
     </r>
@@ -2812,6 +3052,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卷，讲述自源平合战以来至德川幕府初期的日本历史。</t>
     </r>
@@ -2889,6 +3130,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.</t>
     </r>
@@ -2898,6 +3140,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">效法隋唐之均田制，行班田收授法：废除豪族对土地与部民的私有权，并将其收为国有。政府计口授田，凡六岁以上之国民，每六年按人口班给田地（称“口分田”）。所班田地不得买卖，死后归还政府。
 </t>
@@ -2908,6 +3151,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2.</t>
     </r>
@@ -2917,6 +3161,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">效法唐朝租庸调制：受田农民须向国家上缴谷物（此为“租”），服劳役或纳布代役（此为“庸”），并上贡地方土产（此为“调”）。
 </t>
@@ -2927,6 +3172,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3.</t>
     </r>
@@ -2936,6 +3182,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中央设二官：神祇官、太政官和八省（中务、式部、治部、民部、兵部、刑部、大藏、宫内）、一台（弹正台）；一般地方设国、郡、里。
 </t>
@@ -2946,6 +3193,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4.</t>
     </r>
@@ -2955,6 +3203,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">兵制：首都置五卫府，地方设军团，国民需服兵役。</t>
     </r>
@@ -2990,6 +3239,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">包括律六卷、令十一卷，飞鸟时代的基本法，将日本至</t>
     </r>
@@ -2999,6 +3249,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -3008,6 +3259,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪以来《近江令》、《天武令》等等制度与法规修正补订成完备的法典。</t>
     </r>
@@ -3022,6 +3274,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">由十卷十二篇的律与十卷三十篇的令组成。自天平宝字</t>
     </r>
@@ -3031,6 +3284,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -3040,6 +3294,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（</t>
     </r>
@@ -3049,6 +3304,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">757</t>
     </r>
@@ -3058,6 +3314,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）开始施行（时孝谦天皇在位），废止于明治维新，期间大约是</t>
     </r>
@@ -3067,6 +3324,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1100</t>
     </r>
@@ -3076,6 +3334,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年；也是日本史上历史最长的明文法令。律已大半散佚，令大部分尚存于《令义解》中。</t>
     </r>
@@ -3090,6 +3349,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">905-927</t>
     </r>
@@ -3099,6 +3359,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">纂 </t>
     </r>
@@ -3108,6 +3369,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">967</t>
     </r>
@@ -3117,6 +3379,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">实行</t>
     </r>
@@ -3153,6 +3416,9 @@
   </si>
   <si>
     <t xml:space="preserve">氏寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">菩提寺</t>
   </si>
   <si>
     <r>
@@ -3162,6 +3428,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">备注</t>
     </r>
@@ -3172,6 +3439,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -3184,6 +3452,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">备注</t>
     </r>
@@ -3194,6 +3463,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -3205,6 +3475,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">法兴</t>
     </r>
@@ -3214,6 +3485,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -3223,6 +3495,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">飞鸟</t>
     </r>
@@ -3232,6 +3505,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -3241,6 +3515,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">元兴寺</t>
     </r>
@@ -3252,6 +3527,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">588</t>
     </r>
@@ -3261,6 +3537,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（法兴）</t>
     </r>
@@ -3285,6 +3562,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">南都七大寺</t>
     </r>
@@ -3294,6 +3572,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，是奈良时代位在平城京（南都・奈良）及其周边受朝廷保护的</t>
     </r>
@@ -3303,6 +3582,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -3312,6 +3592,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大寺。法隆寺位在斑鸠，所以也有将唐招提寺取代法隆寺作为南都七大寺的说法。此外，也有将弘福寺（现在的川原寺）取代西大寺之说。</t>
     </r>
@@ -3335,6 +3616,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位于日本奈良县奈良市登大路町，南都六宗之一法相宗的大本山，南都七大寺之一。寺院主殿为中金堂，主奉释迦摩尼；其南圆堂主奉不空羂索観世音菩萨，为西国三十三所第</t>
     </r>
@@ -3344,6 +3626,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9</t>
     </r>
@@ -3353,6 +3636,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">札所。</t>
     </r>
@@ -3385,6 +3669,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不少名僧出身该寺，有“日本佛教之母山”的美称，由于在战国时代曾因庇护浅井长政跟朝仓义景的军队而遭织田信长在</t>
     </r>
@@ -3394,6 +3679,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1571</t>
     </r>
@@ -3403,6 +3689,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年率军焚毁，所以也常在宗教、历史文学作品中出现。</t>
     </r>
@@ -3414,6 +3701,147 @@
     <t xml:space="preserve">长德之变相关，藤原伊周祈福地。</t>
   </si>
   <si>
+    <t xml:space="preserve">泉涌寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皇室</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Han Sans CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">菩提寺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Han Sans CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是日本的一种寺庙种类，为代代归依、埋葬祖先遗骨、吊菩提之寺，也称作菩提所、菩提院等。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">东胜寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北条氏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">等持院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足利氏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大德寺总见院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">织田信长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高台寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丰臣秀吉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宽永寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">德川家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增上寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建长寺</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Han Sans CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">镰仓五山（かまくらござん）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Han Sans CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是日本禅宗的寺格。镰仓时代末期，幕府在镰仓制定五大官寺。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">圆觉寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寿福寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">净智寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">净妙寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天龙寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后醍醐天皇驾崩后，作为立场上的敌人，室町幕府第一任将军足利尊氏也对后醍醐天皇缅怀崇敬之情，为悼念他，命僧人梦窗疏石为开山宗师，开创了天龙寺。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Han Sans CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">京都五山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Han Sans CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，是日本京都五所著名佛教临济宗寺庙的并称。镰仓幕府灭亡后，后醍醐天皇推行建武新政，命名了京都五山以取代原有的镰仓五山。后在南北朝时期，五山成为足利幕府的主要支持力量之一。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">相国寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建仁寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东福寺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万寿寺</t>
+  </si>
+  <si>
     <t xml:space="preserve">始祖</t>
   </si>
   <si>
@@ -3435,6 +3863,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">814</t>
     </r>
@@ -3444,6 +3873,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年以后嵯峨天皇皇子被臣籍降下，以减轻皇室负担，成为日后源氏。</t>
     </r>
@@ -3488,6 +3918,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">清和源氏的一支。</t>
     </r>
@@ -3497,6 +3928,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">被武士称作“源氏”的一般指的就是河内源氏。以河内国为根据地。</t>
     </r>
@@ -3538,6 +3970,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">其家纹为橘纹。自县犬养三千代被赐名为橘宿祢。而葛城王亦改名为橘诸兄。其后成为了天皇贵族重要的一个家族。与源氏、平氏及藤原氏合称源平藤橘。在平安时代成为了公卿，在平安时代后橘氏便没落。南北朝时期之后，橘氏宗家取家名为“薄”，薄家因此诞生，是橘氏唯一的堂上家。薄家最后一位当主薄诸光于</t>
     </r>
@@ -3547,6 +3980,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1585</t>
     </r>
@@ -3556,6 +3990,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -3565,6 +4000,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11</t>
     </r>
@@ -3574,6 +4010,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -3583,6 +4020,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">26</t>
     </r>
@@ -3592,6 +4030,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日在丰臣秀吉的命令下自尽，薄家因此断绝。</t>
     </r>
@@ -3601,6 +4040,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1620</t>
     </r>
@@ -3610,6 +4050,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年，九条幸家让地下家出身的家臣信浓小路宗增改姓橘氏，让信浓小路家成为橘氏的嫡流。</t>
     </r>
@@ -3642,6 +4083,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9</t>
     </r>
@@ -3651,6 +4093,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪</t>
     </r>
@@ -3660,6 +4103,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -3669,6 +4113,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平安初期</t>
     </r>
@@ -3683,6 +4128,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">藤原良房执政期政治安定、奨励开垦，并完成贞观格式的编纂，被日本史称为贞观之治 </t>
     </r>
@@ -3692,6 +4138,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -3701,6 +4148,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日本</t>
     </r>
@@ -3710,6 +4158,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -3721,6 +4170,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9</t>
     </r>
@@ -3730,6 +4180,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪后期</t>
     </r>
@@ -3739,6 +4190,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -3748,6 +4200,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平安初期</t>
     </r>
@@ -3768,6 +4221,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">宇多天皇重用藤原时平、菅原道真、平季长等近臣。</t>
     </r>
@@ -3777,6 +4231,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">894</t>
     </r>
@@ -3786,6 +4241,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（寛平</t>
     </r>
@@ -3795,6 +4251,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6</t>
     </r>
@@ -3804,6 +4261,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）の遣唐使廃止や</t>
     </r>
@@ -3813,6 +4271,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">896</t>
     </r>
@@ -3822,6 +4281,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年（寛平</t>
     </r>
@@ -3831,6 +4291,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -3840,6 +4301,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年）の造籍、私営田抑制、滝口武者の設置等に加え、国司に一国内の租税納入を請け負わせる国司請負や、位田等からの俸給給付等を民部省を通さずに各国で行う等、国司の権限を強化する改革を次々と行ったとされている</t>
     </r>
@@ -3851,6 +4313,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -3860,6 +4323,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪前期</t>
     </r>
@@ -3869,6 +4333,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -3878,6 +4343,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平安初期</t>
     </r>
@@ -3895,6 +4361,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">902</t>
     </r>
@@ -3904,6 +4371,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年颁布班田励行令，为延续律令制最为显著之举，但也是日本史上最后一次实施班田。此外为使律令制延续，最为律令补充的延喜格式也在此时期进行编纂，该时期被视为理想的政治状态，被称为延喜之治。</t>
     </r>
@@ -3915,6 +4383,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -3924,6 +4393,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">世纪中期</t>
     </r>
@@ -3933,6 +4403,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -3942,6 +4413,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平安中期</t>
     </r>
@@ -3962,6 +4434,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">合称延喜</t>
     </r>
@@ -3971,6 +4444,7 @@
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">·</t>
     </r>
@@ -3980,6 +4454,7 @@
         <color rgb="FF000000"/>
         <rFont val="Source Han Sans CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">天历之治。</t>
     </r>
@@ -4004,12 +4479,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4031,18 +4507,21 @@
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4050,6 +4529,7 @@
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4057,36 +4537,42 @@
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Source Han Sans CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF333333"/>
       <name val="Source Han Sans CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF333333"/>
       <name val="Fira Code"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4094,9 +4580,17 @@
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Source Han Sans CN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
@@ -4107,6 +4601,7 @@
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4114,6 +4609,7 @@
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4158,7 +4654,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4203,6 +4699,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4240,6 +4740,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4247,7 +4751,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4272,16 +4776,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1095"/>
+  <dimension ref="A1:E1097"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="34.49"/>
@@ -5462,24 +5966,24 @@
         <v>227</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>63</v>
@@ -5489,62 +5993,62 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>1374</v>
+      <c r="A74" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>241</v>
+      <c r="A77" s="1" t="n">
+        <v>1374</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>20</v>
@@ -5553,38 +6057,38 @@
         <v>63</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>1470</v>
+      <c r="A79" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>250</v>
@@ -5598,137 +6102,137 @@
         <v>252</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>1532</v>
+        <v>1470</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>1669</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>260</v>
+        <v>1532</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>1713</v>
+        <v>1635</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="9" t="s">
         <v>263</v>
       </c>
+      <c r="C84" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="D84" s="1" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>1713</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="C86" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>277</v>
+      <c r="E87" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>278</v>
@@ -5745,93 +6249,119 @@
     </row>
     <row r="89" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>1886</v>
-      </c>
       <c r="B90" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E93" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="32.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="11" t="s">
+        <v>295</v>
+      </c>
       <c r="B95" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="32.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11"/>
+      <c r="B96" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1"/>
+      <c r="E96" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="22.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="11"/>
+      <c r="B97" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
+      <c r="E97" s="8" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1"/>
@@ -10823,10 +11353,20 @@
       <c r="C1095" s="1"/>
       <c r="D1095" s="1"/>
     </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1096" s="1"/>
+      <c r="C1096" s="1"/>
+      <c r="D1096" s="1"/>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1097" s="1"/>
+      <c r="C1097" s="1"/>
+      <c r="D1097" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A95:A97"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10851,15 +11391,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="11" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="37.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="11" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="12" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="37.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="12" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="14" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10875,30 +11415,30 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="15" t="n">
         <v>604</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>300</v>
+      <c r="E3" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -11921,18 +12461,18 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="15" t="n">
         <v>646</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>303</v>
+      <c r="B4" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>310</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -12955,18 +13495,18 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>668</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>306</v>
+      <c r="B5" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -13989,17 +14529,17 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>689</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="17"/>
+      <c r="B6" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
@@ -15025,16 +15565,16 @@
         <v>701</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>312</v>
+        <v>318</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15042,10 +15582,10 @@
         <v>757</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15053,62 +15593,62 @@
         <v>902</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>322</v>
+      </c>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>328</v>
+      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>1156</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>329</v>
+      </c>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="17"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="17"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="17"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15129,185 +15669,323 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="6.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="5.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="27.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="18" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="6.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="5.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="5.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="27.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="19" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" s="6" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>329</v>
+        <v>336</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>336</v>
+        <v>342</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>669</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="19"/>
+        <v>348</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+        <v>350</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
+        <v>351</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
+        <v>352</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
+        <v>353</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
+        <v>354</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>349</v>
+      <c r="G10" s="17" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>351</v>
+        <v>358</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F12" s="17"/>
+      <c r="A12" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F13" s="17"/>
+      <c r="A13" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F14" s="17"/>
+      <c r="A14" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F15" s="17"/>
+      <c r="A15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F16" s="17"/>
+      <c r="A16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F17" s="17"/>
+      <c r="A17" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F18" s="17"/>
+      <c r="A18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F19" s="17"/>
+      <c r="A19" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G3:G9"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -15333,7 +16011,7 @@
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="57.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="2" width="8.36"/>
@@ -15344,137 +16022,137 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>369</v>
+        <v>403</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>404</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="1" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="AMJ12" s="0"/>
     </row>
@@ -18502,110 +19180,110 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="61.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="18" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="18" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="19" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="19" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="true" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" s="24" customFormat="true" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>387</v>
+      <c r="C1" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="61.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>390</v>
+      <c r="E2" s="25" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="61.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>395</v>
+      <c r="A3" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="61.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>399</v>
+      <c r="A4" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="61.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>404</v>
+      <c r="A5" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="61.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>407</v>
+      <c r="A6" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="61.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F48" s="20" t="s">
-        <v>408</v>
+      <c r="F48" s="22" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
